--- a/data/국내기름가격.xlsx
+++ b/data/국내기름가격.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\a조 팀프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madda\.ssh\project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC071AE-C85B-4EAB-945B-48E371D04835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="국내기름가격" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>날짜</t>
   </si>
@@ -34,18 +35,611 @@
   </si>
   <si>
     <t>실내등유</t>
+  </si>
+  <si>
+    <t>2022년04월06일</t>
+  </si>
+  <si>
+    <t>2022년04월07일</t>
+  </si>
+  <si>
+    <t>2022년04월08일</t>
+  </si>
+  <si>
+    <t>2022년04월09일</t>
+  </si>
+  <si>
+    <t>2022년04월10일</t>
+  </si>
+  <si>
+    <t>2022년04월11일</t>
+  </si>
+  <si>
+    <t>2022년04월12일</t>
+  </si>
+  <si>
+    <t>2022년04월13일</t>
+  </si>
+  <si>
+    <t>2021년10월01일</t>
+  </si>
+  <si>
+    <t>2021년10월02일</t>
+  </si>
+  <si>
+    <t>2021년10월03일</t>
+  </si>
+  <si>
+    <t>2021년10월04일</t>
+  </si>
+  <si>
+    <t>2021년10월05일</t>
+  </si>
+  <si>
+    <t>2021년10월06일</t>
+  </si>
+  <si>
+    <t>2021년10월07일</t>
+  </si>
+  <si>
+    <t>2021년10월08일</t>
+  </si>
+  <si>
+    <t>2021년10월09일</t>
+  </si>
+  <si>
+    <t>2021년10월10일</t>
+  </si>
+  <si>
+    <t>2021년10월11일</t>
+  </si>
+  <si>
+    <t>2021년10월12일</t>
+  </si>
+  <si>
+    <t>2021년10월13일</t>
+  </si>
+  <si>
+    <t>2021년10월14일</t>
+  </si>
+  <si>
+    <t>2021년10월15일</t>
+  </si>
+  <si>
+    <t>2021년10월16일</t>
+  </si>
+  <si>
+    <t>2021년10월17일</t>
+  </si>
+  <si>
+    <t>2021년10월18일</t>
+  </si>
+  <si>
+    <t>2021년10월19일</t>
+  </si>
+  <si>
+    <t>2021년10월20일</t>
+  </si>
+  <si>
+    <t>2021년10월21일</t>
+  </si>
+  <si>
+    <t>2021년10월22일</t>
+  </si>
+  <si>
+    <t>2021년10월23일</t>
+  </si>
+  <si>
+    <t>2021년10월24일</t>
+  </si>
+  <si>
+    <t>2021년10월25일</t>
+  </si>
+  <si>
+    <t>2021년10월26일</t>
+  </si>
+  <si>
+    <t>2021년10월27일</t>
+  </si>
+  <si>
+    <t>2021년10월28일</t>
+  </si>
+  <si>
+    <t>2021년10월29일</t>
+  </si>
+  <si>
+    <t>2021년10월30일</t>
+  </si>
+  <si>
+    <t>2021년10월31일</t>
+  </si>
+  <si>
+    <t>2021년11월01일</t>
+  </si>
+  <si>
+    <t>2021년11월02일</t>
+  </si>
+  <si>
+    <t>2021년11월03일</t>
+  </si>
+  <si>
+    <t>2021년11월04일</t>
+  </si>
+  <si>
+    <t>2021년11월05일</t>
+  </si>
+  <si>
+    <t>2021년11월06일</t>
+  </si>
+  <si>
+    <t>2021년11월07일</t>
+  </si>
+  <si>
+    <t>2021년11월08일</t>
+  </si>
+  <si>
+    <t>2021년11월09일</t>
+  </si>
+  <si>
+    <t>2021년11월10일</t>
+  </si>
+  <si>
+    <t>2021년11월11일</t>
+  </si>
+  <si>
+    <t>2021년11월12일</t>
+  </si>
+  <si>
+    <t>2021년11월13일</t>
+  </si>
+  <si>
+    <t>2021년11월14일</t>
+  </si>
+  <si>
+    <t>2021년11월15일</t>
+  </si>
+  <si>
+    <t>2021년11월16일</t>
+  </si>
+  <si>
+    <t>2021년11월17일</t>
+  </si>
+  <si>
+    <t>2021년11월18일</t>
+  </si>
+  <si>
+    <t>2021년11월19일</t>
+  </si>
+  <si>
+    <t>2021년11월20일</t>
+  </si>
+  <si>
+    <t>2021년11월21일</t>
+  </si>
+  <si>
+    <t>2021년11월22일</t>
+  </si>
+  <si>
+    <t>2021년11월23일</t>
+  </si>
+  <si>
+    <t>2021년11월24일</t>
+  </si>
+  <si>
+    <t>2021년11월25일</t>
+  </si>
+  <si>
+    <t>2021년11월26일</t>
+  </si>
+  <si>
+    <t>2021년11월27일</t>
+  </si>
+  <si>
+    <t>2021년11월28일</t>
+  </si>
+  <si>
+    <t>2021년11월29일</t>
+  </si>
+  <si>
+    <t>2021년11월30일</t>
+  </si>
+  <si>
+    <t>2021년12월01일</t>
+  </si>
+  <si>
+    <t>2021년12월02일</t>
+  </si>
+  <si>
+    <t>2021년12월03일</t>
+  </si>
+  <si>
+    <t>2021년12월04일</t>
+  </si>
+  <si>
+    <t>2021년12월05일</t>
+  </si>
+  <si>
+    <t>2021년12월06일</t>
+  </si>
+  <si>
+    <t>2021년12월07일</t>
+  </si>
+  <si>
+    <t>2021년12월08일</t>
+  </si>
+  <si>
+    <t>2021년12월09일</t>
+  </si>
+  <si>
+    <t>2021년12월10일</t>
+  </si>
+  <si>
+    <t>2021년12월11일</t>
+  </si>
+  <si>
+    <t>2021년12월12일</t>
+  </si>
+  <si>
+    <t>2021년12월13일</t>
+  </si>
+  <si>
+    <t>2021년12월14일</t>
+  </si>
+  <si>
+    <t>2021년12월15일</t>
+  </si>
+  <si>
+    <t>2021년12월16일</t>
+  </si>
+  <si>
+    <t>2021년12월17일</t>
+  </si>
+  <si>
+    <t>2021년12월18일</t>
+  </si>
+  <si>
+    <t>2021년12월19일</t>
+  </si>
+  <si>
+    <t>2021년12월20일</t>
+  </si>
+  <si>
+    <t>2021년12월21일</t>
+  </si>
+  <si>
+    <t>2021년12월22일</t>
+  </si>
+  <si>
+    <t>2021년12월23일</t>
+  </si>
+  <si>
+    <t>2021년12월24일</t>
+  </si>
+  <si>
+    <t>2021년12월25일</t>
+  </si>
+  <si>
+    <t>2021년12월26일</t>
+  </si>
+  <si>
+    <t>2021년12월27일</t>
+  </si>
+  <si>
+    <t>2021년12월28일</t>
+  </si>
+  <si>
+    <t>2021년12월29일</t>
+  </si>
+  <si>
+    <t>2021년12월30일</t>
+  </si>
+  <si>
+    <t>2021년12월31일</t>
+  </si>
+  <si>
+    <t>2022년01월01일</t>
+  </si>
+  <si>
+    <t>2022년01월02일</t>
+  </si>
+  <si>
+    <t>2022년01월03일</t>
+  </si>
+  <si>
+    <t>2022년01월04일</t>
+  </si>
+  <si>
+    <t>2022년01월05일</t>
+  </si>
+  <si>
+    <t>2022년01월06일</t>
+  </si>
+  <si>
+    <t>2022년01월07일</t>
+  </si>
+  <si>
+    <t>2022년01월08일</t>
+  </si>
+  <si>
+    <t>2022년01월09일</t>
+  </si>
+  <si>
+    <t>2022년01월10일</t>
+  </si>
+  <si>
+    <t>2022년01월11일</t>
+  </si>
+  <si>
+    <t>2022년01월12일</t>
+  </si>
+  <si>
+    <t>2022년01월13일</t>
+  </si>
+  <si>
+    <t>2022년01월14일</t>
+  </si>
+  <si>
+    <t>2022년01월15일</t>
+  </si>
+  <si>
+    <t>2022년01월16일</t>
+  </si>
+  <si>
+    <t>2022년01월17일</t>
+  </si>
+  <si>
+    <t>2022년01월18일</t>
+  </si>
+  <si>
+    <t>2022년01월19일</t>
+  </si>
+  <si>
+    <t>2022년01월20일</t>
+  </si>
+  <si>
+    <t>2022년01월21일</t>
+  </si>
+  <si>
+    <t>2022년01월22일</t>
+  </si>
+  <si>
+    <t>2022년01월23일</t>
+  </si>
+  <si>
+    <t>2022년01월24일</t>
+  </si>
+  <si>
+    <t>2022년01월25일</t>
+  </si>
+  <si>
+    <t>2022년01월26일</t>
+  </si>
+  <si>
+    <t>2022년01월27일</t>
+  </si>
+  <si>
+    <t>2022년01월28일</t>
+  </si>
+  <si>
+    <t>2022년01월29일</t>
+  </si>
+  <si>
+    <t>2022년01월30일</t>
+  </si>
+  <si>
+    <t>2022년01월31일</t>
+  </si>
+  <si>
+    <t>2022년02월01일</t>
+  </si>
+  <si>
+    <t>2022년02월02일</t>
+  </si>
+  <si>
+    <t>2022년02월03일</t>
+  </si>
+  <si>
+    <t>2022년02월04일</t>
+  </si>
+  <si>
+    <t>2022년02월05일</t>
+  </si>
+  <si>
+    <t>2022년02월06일</t>
+  </si>
+  <si>
+    <t>2022년02월07일</t>
+  </si>
+  <si>
+    <t>2022년02월08일</t>
+  </si>
+  <si>
+    <t>2022년02월09일</t>
+  </si>
+  <si>
+    <t>2022년02월10일</t>
+  </si>
+  <si>
+    <t>2022년02월11일</t>
+  </si>
+  <si>
+    <t>2022년02월12일</t>
+  </si>
+  <si>
+    <t>2022년02월13일</t>
+  </si>
+  <si>
+    <t>2022년02월14일</t>
+  </si>
+  <si>
+    <t>2022년02월15일</t>
+  </si>
+  <si>
+    <t>2022년02월16일</t>
+  </si>
+  <si>
+    <t>2022년02월17일</t>
+  </si>
+  <si>
+    <t>2022년02월18일</t>
+  </si>
+  <si>
+    <t>2022년02월19일</t>
+  </si>
+  <si>
+    <t>2022년02월20일</t>
+  </si>
+  <si>
+    <t>2022년02월21일</t>
+  </si>
+  <si>
+    <t>2022년02월22일</t>
+  </si>
+  <si>
+    <t>2022년02월23일</t>
+  </si>
+  <si>
+    <t>2022년02월24일</t>
+  </si>
+  <si>
+    <t>2022년02월25일</t>
+  </si>
+  <si>
+    <t>2022년02월26일</t>
+  </si>
+  <si>
+    <t>2022년02월27일</t>
+  </si>
+  <si>
+    <t>2022년02월28일</t>
+  </si>
+  <si>
+    <t>2022년03월01일</t>
+  </si>
+  <si>
+    <t>2022년03월02일</t>
+  </si>
+  <si>
+    <t>2022년03월03일</t>
+  </si>
+  <si>
+    <t>2022년03월04일</t>
+  </si>
+  <si>
+    <t>2022년03월05일</t>
+  </si>
+  <si>
+    <t>2022년03월06일</t>
+  </si>
+  <si>
+    <t>2022년03월07일</t>
+  </si>
+  <si>
+    <t>2022년03월08일</t>
+  </si>
+  <si>
+    <t>2022년03월09일</t>
+  </si>
+  <si>
+    <t>2022년03월10일</t>
+  </si>
+  <si>
+    <t>2022년03월11일</t>
+  </si>
+  <si>
+    <t>2022년03월12일</t>
+  </si>
+  <si>
+    <t>2022년03월13일</t>
+  </si>
+  <si>
+    <t>2022년03월14일</t>
+  </si>
+  <si>
+    <t>2022년03월15일</t>
+  </si>
+  <si>
+    <t>2022년03월16일</t>
+  </si>
+  <si>
+    <t>2022년03월17일</t>
+  </si>
+  <si>
+    <t>2022년03월18일</t>
+  </si>
+  <si>
+    <t>2022년03월19일</t>
+  </si>
+  <si>
+    <t>2022년03월20일</t>
+  </si>
+  <si>
+    <t>2022년03월21일</t>
+  </si>
+  <si>
+    <t>2022년03월22일</t>
+  </si>
+  <si>
+    <t>2022년03월23일</t>
+  </si>
+  <si>
+    <t>2022년03월24일</t>
+  </si>
+  <si>
+    <t>2022년03월25일</t>
+  </si>
+  <si>
+    <t>2022년03월26일</t>
+  </si>
+  <si>
+    <t>2022년03월27일</t>
+  </si>
+  <si>
+    <t>2022년03월28일</t>
+  </si>
+  <si>
+    <t>2022년03월29일</t>
+  </si>
+  <si>
+    <t>2022년03월30일</t>
+  </si>
+  <si>
+    <t>2022년03월31일</t>
+  </si>
+  <si>
+    <t>2022년04월01일</t>
+  </si>
+  <si>
+    <t>2022년04월02일</t>
+  </si>
+  <si>
+    <t>2022년04월03일</t>
+  </si>
+  <si>
+    <t>2022년04월04일</t>
+  </si>
+  <si>
+    <t>2022년04월05일</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -217,8 +811,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -406,7 +1017,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -549,99 +1160,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,10 +1312,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,10 +1321,7 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,10 +1330,7 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,10 +1339,7 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,46 +1348,64 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="63">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색1 2" xfId="45" xr:uid="{CCA256D0-7489-45E3-B448-CD0BF45204CA}"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2 2" xfId="48" xr:uid="{EAC12535-F79A-4AD2-9521-148272C9E097}"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3 2" xfId="51" xr:uid="{EFCCBB76-B04A-4950-9CB8-DA37CEC54B9E}"/>
     <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4 2" xfId="54" xr:uid="{E383438C-7093-40BC-A557-B425C634F9E2}"/>
     <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5 2" xfId="57" xr:uid="{BD2B1783-3F62-44D5-A1C9-70C7611BDDC7}"/>
     <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6 2" xfId="60" xr:uid="{1D53F389-07A9-4F5A-8975-A6836CD6EB59}"/>
     <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1 2" xfId="46" xr:uid="{72031F7F-CC94-4F51-9072-DD98B5550A4B}"/>
     <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2 2" xfId="49" xr:uid="{FDFF9B83-11E6-4D98-A2B2-D32064A39477}"/>
     <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3 2" xfId="52" xr:uid="{FB1DD021-CFE7-488B-935C-5EC49643F905}"/>
     <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4 2" xfId="55" xr:uid="{8675456C-B1F5-451A-AA02-ECE5AB8396C0}"/>
     <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5 2" xfId="58" xr:uid="{68565522-6B8B-4C29-8FDB-619322E883A9}"/>
     <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6 2" xfId="61" xr:uid="{B56C4089-43AD-41E0-8CF3-4986D10B4FB9}"/>
     <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1 2" xfId="47" xr:uid="{7431B358-FECB-48E9-BA6B-FD1B8C847AA3}"/>
     <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2 2" xfId="50" xr:uid="{A2B65E49-92C0-4A5B-9520-5797420F5CEF}"/>
     <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3 2" xfId="53" xr:uid="{4568F125-3942-4017-BD70-E6F64781A640}"/>
     <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4 2" xfId="56" xr:uid="{BA2F96E6-8383-4364-8D4A-02E171340ACD}"/>
     <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5 2" xfId="59" xr:uid="{4AB7A6FA-BA57-4408-AB24-53206F94F6BA}"/>
     <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6 2" xfId="62" xr:uid="{632C3934-1009-49B5-84A3-EDE1257EFF01}"/>
     <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -748,7 +1416,9 @@
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="메모 2" xfId="44" xr:uid="{845852DB-CA74-4EB8-9B77-93749C171E72}"/>
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="보통 2" xfId="43" xr:uid="{6C3A0585-16C6-48BD-8210-40AF3A76F183}"/>
     <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -762,6 +1432,7 @@
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="42" xr:uid="{56E14D13-FDCC-4A71-A3ED-D574C869C139}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -793,7 +1464,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1" hidden="1"/>
+        <xdr:cNvPr id="1025" name="Picture 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvPicPr>
@@ -1094,12 +1771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="K191" sqref="K191"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.95"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="3" width="9.625" customWidth="1"/>
@@ -1107,7 +1786,7 @@
     <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,9 +1803,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>44470</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>1885.66</v>
@@ -1141,9 +1820,9 @@
         <v>946.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>44471</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>1886.37</v>
@@ -1158,9 +1837,9 @@
         <v>947.17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>44472</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>1886.54</v>
@@ -1175,9 +1854,9 @@
         <v>947.72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>44473</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>1887.18</v>
@@ -1192,9 +1871,9 @@
         <v>947.96</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>44474</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>1888.63</v>
@@ -1209,9 +1888,9 @@
         <v>948.81</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>44475</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>1891.84</v>
@@ -1226,9 +1905,9 @@
         <v>949.68</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>44476</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <v>1895.49</v>
@@ -1243,9 +1922,9 @@
         <v>951.19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>44477</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>1904.09</v>
@@ -1260,9 +1939,9 @@
         <v>953.79</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>44478</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="4">
         <v>1907.68</v>
@@ -1277,9 +1956,9 @@
         <v>957.76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>44479</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="4">
         <v>1909.44</v>
@@ -1294,9 +1973,9 @@
         <v>959.67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>44480</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="4">
         <v>1911.16</v>
@@ -1311,9 +1990,9 @@
         <v>961.32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>44481</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="4">
         <v>1914.22</v>
@@ -1328,9 +2007,9 @@
         <v>963.77</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>44482</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="4">
         <v>1921.65</v>
@@ -1345,9 +2024,9 @@
         <v>968.27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>44483</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="4">
         <v>1928.23</v>
@@ -1362,9 +2041,9 @@
         <v>972.67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>44484</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="4">
         <v>1935</v>
@@ -1379,9 +2058,9 @@
         <v>978.79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>44485</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="4">
         <v>1939.86</v>
@@ -1396,9 +2075,9 @@
         <v>987.28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>44486</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="4">
         <v>1941.97</v>
@@ -1413,9 +2092,9 @@
         <v>991.71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>44487</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B19" s="4">
         <v>1944.88</v>
@@ -1430,9 +2109,9 @@
         <v>996.46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>44488</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="4">
         <v>1950.35</v>
@@ -1447,9 +2126,9 @@
         <v>1003.18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>44489</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="4">
         <v>1957.08</v>
@@ -1464,9 +2143,9 @@
         <v>1009.47</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>44490</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="4">
         <v>1961.29</v>
@@ -1481,9 +2160,9 @@
         <v>1015.34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>44491</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B23" s="4">
         <v>1965.56</v>
@@ -1498,9 +2177,9 @@
         <v>1021.58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>44492</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B24" s="4">
         <v>1969.45</v>
@@ -1515,9 +2194,9 @@
         <v>1027.47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>44493</v>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B25" s="4">
         <v>1972.08</v>
@@ -1532,9 +2211,9 @@
         <v>1029.75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>44494</v>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B26" s="4">
         <v>1974.34</v>
@@ -1549,9 +2228,9 @@
         <v>1032.49</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>44495</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B27" s="4">
         <v>1977.99</v>
@@ -1566,9 +2245,9 @@
         <v>1036.1099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>44496</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B28" s="4">
         <v>1984.51</v>
@@ -1583,9 +2262,9 @@
         <v>1039.79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>44497</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B29" s="4">
         <v>1990.71</v>
@@ -1600,9 +2279,9 @@
         <v>1043.92</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>44498</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B30" s="4">
         <v>1993.84</v>
@@ -1617,9 +2296,9 @@
         <v>1048.42</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>44499</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B31" s="4">
         <v>1998.49</v>
@@ -1634,9 +2313,9 @@
         <v>1053.21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>44500</v>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B32" s="4">
         <v>2000.68</v>
@@ -1651,9 +2330,9 @@
         <v>1055.53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>44501</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A33" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B33" s="4">
         <v>2003.03</v>
@@ -1668,9 +2347,9 @@
         <v>1057.93</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>44502</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A34" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B34" s="4">
         <v>2005.13</v>
@@ -1685,9 +2364,9 @@
         <v>1061.3399999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>44503</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A35" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B35" s="4">
         <v>2008.6</v>
@@ -1702,9 +2381,9 @@
         <v>1064.5999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>44504</v>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A36" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B36" s="4">
         <v>2014.46</v>
@@ -1719,9 +2398,9 @@
         <v>1067.74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>44505</v>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A37" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B37" s="4">
         <v>2017.61</v>
@@ -1736,9 +2415,9 @@
         <v>1071.3499999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>44506</v>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A38" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B38" s="4">
         <v>2018.98</v>
@@ -1753,9 +2432,9 @@
         <v>1074.77</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>44507</v>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A39" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B39" s="4">
         <v>2019.92</v>
@@ -1770,9 +2449,9 @@
         <v>1076.2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>44508</v>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A40" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B40" s="4">
         <v>2021.26</v>
@@ -1787,9 +2466,9 @@
         <v>1077.7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>44509</v>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A41" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B41" s="4">
         <v>2022.37</v>
@@ -1804,9 +2483,9 @@
         <v>1080.6099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>44510</v>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A42" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B42" s="4">
         <v>2023.68</v>
@@ -1821,9 +2500,9 @@
         <v>1083.1600000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>44511</v>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A43" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B43" s="4">
         <v>2023.92</v>
@@ -1838,9 +2517,9 @@
         <v>1084.93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>44512</v>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A44" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B44" s="4">
         <v>1943.95</v>
@@ -1855,9 +2534,9 @@
         <v>1087.55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>44513</v>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A45" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B45" s="4">
         <v>1932.15</v>
@@ -1872,9 +2551,9 @@
         <v>1089.4100000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>44514</v>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A46" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B46" s="4">
         <v>1926.97</v>
@@ -1889,9 +2568,9 @@
         <v>1090.05</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>44515</v>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A47" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B47" s="4">
         <v>1920.72</v>
@@ -1906,9 +2585,9 @@
         <v>1090.98</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>44516</v>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A48" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B48" s="4">
         <v>1914.06</v>
@@ -1923,9 +2602,9 @@
         <v>1092.4000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>44517</v>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A49" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B49" s="4">
         <v>1909.54</v>
@@ -1940,9 +2619,9 @@
         <v>1094.02</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>44518</v>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A50" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B50" s="4">
         <v>1905.72</v>
@@ -1957,9 +2636,9 @@
         <v>1095.2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>44519</v>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A51" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B51" s="4">
         <v>1903.27</v>
@@ -1974,9 +2653,9 @@
         <v>1096.54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>44520</v>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A52" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B52" s="4">
         <v>1902.19</v>
@@ -1991,9 +2670,9 @@
         <v>1097.5899999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>44521</v>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A53" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B53" s="4">
         <v>1901.4</v>
@@ -2008,9 +2687,9 @@
         <v>1097.81</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>44522</v>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A54" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B54" s="4">
         <v>1899.77</v>
@@ -2025,9 +2704,9 @@
         <v>1098.49</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>44523</v>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A55" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B55" s="4">
         <v>1898.46</v>
@@ -2042,9 +2721,9 @@
         <v>1099.23</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>44524</v>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A56" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B56" s="4">
         <v>1897.32</v>
@@ -2059,9 +2738,9 @@
         <v>1099.82</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>44525</v>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A57" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B57" s="4">
         <v>1896.09</v>
@@ -2076,9 +2755,9 @@
         <v>1100.31</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>44526</v>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A58" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B58" s="4">
         <v>1894.56</v>
@@ -2093,9 +2772,9 @@
         <v>1100.95</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>44527</v>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A59" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B59" s="4">
         <v>1893.14</v>
@@ -2110,9 +2789,9 @@
         <v>1101.52</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>44528</v>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A60" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B60" s="4">
         <v>1892.68</v>
@@ -2127,9 +2806,9 @@
         <v>1101.6400000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>44529</v>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A61" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B61" s="4">
         <v>1891.82</v>
@@ -2144,9 +2823,9 @@
         <v>1101.78</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>44530</v>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A62" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B62" s="4">
         <v>1892.07</v>
@@ -2161,9 +2840,9 @@
         <v>1102.03</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
-        <v>44531</v>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A63" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B63" s="4">
         <v>1889.99</v>
@@ -2178,9 +2857,9 @@
         <v>1102.0899999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>44532</v>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A64" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B64" s="4">
         <v>1888.38</v>
@@ -2195,9 +2874,9 @@
         <v>1102.08</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>44533</v>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A65" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B65" s="4">
         <v>1887.32</v>
@@ -2212,9 +2891,9 @@
         <v>1102.2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>44534</v>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A66" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B66" s="4">
         <v>1885.76</v>
@@ -2229,9 +2908,9 @@
         <v>1102.06</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>44535</v>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A67" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B67" s="4">
         <v>1885.64</v>
@@ -2246,9 +2925,9 @@
         <v>1101.8499999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>44536</v>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A68" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B68" s="4">
         <v>1884.99</v>
@@ -2263,9 +2942,9 @@
         <v>1101.7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>44537</v>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A69" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B69" s="4">
         <v>1883.22</v>
@@ -2280,9 +2959,9 @@
         <v>1100.8699999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>44538</v>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A70" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B70" s="4">
         <v>1881.65</v>
@@ -2297,9 +2976,9 @@
         <v>1100.1300000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
-        <v>44539</v>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A71" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B71" s="4">
         <v>1878.97</v>
@@ -2314,9 +2993,9 @@
         <v>1099.27</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>44540</v>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A72" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B72" s="4">
         <v>1876.76</v>
@@ -2331,9 +3010,9 @@
         <v>1098.8699999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
-        <v>44541</v>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A73" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B73" s="4">
         <v>1875.24</v>
@@ -2348,9 +3027,9 @@
         <v>1098.31</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>44542</v>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A74" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B74" s="4">
         <v>1874.48</v>
@@ -2365,9 +3044,9 @@
         <v>1097.97</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
-        <v>44543</v>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A75" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B75" s="4">
         <v>1873.73</v>
@@ -2382,9 +3061,9 @@
         <v>1097.72</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>44544</v>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A76" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B76" s="4">
         <v>1872.38</v>
@@ -2399,9 +3078,9 @@
         <v>1096.93</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
-        <v>44545</v>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A77" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B77" s="4">
         <v>1870.76</v>
@@ -2416,9 +3095,9 @@
         <v>1095.9000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>44546</v>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A78" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B78" s="4">
         <v>1869.18</v>
@@ -2433,9 +3112,9 @@
         <v>1094.46</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
-        <v>44547</v>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A79" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B79" s="4">
         <v>1868</v>
@@ -2450,9 +3129,9 @@
         <v>1093.54</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>44548</v>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A80" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B80" s="4">
         <v>1866.8</v>
@@ -2467,9 +3146,9 @@
         <v>1092.73</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>44549</v>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A81" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B81" s="4">
         <v>1866.59</v>
@@ -2484,9 +3163,9 @@
         <v>1092.46</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>44550</v>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A82" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B82" s="4">
         <v>1865.79</v>
@@ -2501,9 +3180,9 @@
         <v>1091.79</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
-        <v>44551</v>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A83" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B83" s="4">
         <v>1864.53</v>
@@ -2518,9 +3197,9 @@
         <v>1090.98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>44552</v>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A84" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B84" s="4">
         <v>1863.72</v>
@@ -2535,9 +3214,9 @@
         <v>1089.93</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
-        <v>44553</v>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A85" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B85" s="4">
         <v>1862.86</v>
@@ -2552,9 +3231,9 @@
         <v>1089.56</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>44554</v>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A86" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B86" s="4">
         <v>1862.83</v>
@@ -2569,9 +3248,9 @@
         <v>1089.43</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
-        <v>44555</v>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A87" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B87" s="4">
         <v>1861.49</v>
@@ -2586,9 +3265,9 @@
         <v>1088.94</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>44556</v>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A88" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B88" s="4">
         <v>1861.38</v>
@@ -2603,9 +3282,9 @@
         <v>1088.6199999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
-        <v>44557</v>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A89" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B89" s="4">
         <v>1862</v>
@@ -2620,9 +3299,9 @@
         <v>1088.28</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>44558</v>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A90" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B90" s="4">
         <v>1861.44</v>
@@ -2637,9 +3316,9 @@
         <v>1087.96</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
-        <v>44559</v>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A91" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B91" s="4">
         <v>1861.28</v>
@@ -2654,9 +3333,9 @@
         <v>1087.6400000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>44560</v>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A92" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B92" s="4">
         <v>1860.68</v>
@@ -2671,9 +3350,9 @@
         <v>1087.67</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
-        <v>44561</v>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A93" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B93" s="4">
         <v>1859.91</v>
@@ -2688,9 +3367,9 @@
         <v>1087.8699999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>44562</v>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A94" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B94" s="4">
         <v>1859.16</v>
@@ -2705,9 +3384,9 @@
         <v>1087.42</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>44563</v>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A95" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B95" s="4">
         <v>1859.4</v>
@@ -2722,9 +3401,9 @@
         <v>1087.19</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>44564</v>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A96" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B96" s="4">
         <v>1858.95</v>
@@ -2739,9 +3418,9 @@
         <v>1086.8399999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
-        <v>44565</v>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A97" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B97" s="4">
         <v>1858.55</v>
@@ -2756,9 +3435,9 @@
         <v>1086.8499999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>44566</v>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A98" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B98" s="4">
         <v>1858.76</v>
@@ -2773,9 +3452,9 @@
         <v>1086.69</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>44567</v>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A99" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B99" s="4">
         <v>1858.55</v>
@@ -2790,9 +3469,9 @@
         <v>1086.3800000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>44568</v>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A100" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B100" s="4">
         <v>1859.42</v>
@@ -2807,9 +3486,9 @@
         <v>1086.4000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
-        <v>44569</v>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A101" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B101" s="4">
         <v>1859.79</v>
@@ -2824,9 +3503,9 @@
         <v>1087.08</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>44570</v>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A102" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B102" s="4">
         <v>1859.76</v>
@@ -2841,9 +3520,9 @@
         <v>1087.0999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
-        <v>44571</v>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A103" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B103" s="4">
         <v>1860.01</v>
@@ -2858,9 +3537,9 @@
         <v>1087.06</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>44572</v>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A104" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B104" s="4">
         <v>1861.18</v>
@@ -2875,9 +3554,9 @@
         <v>1087.22</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
-        <v>44573</v>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A105" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B105" s="4">
         <v>1861.28</v>
@@ -2892,9 +3571,9 @@
         <v>1087.95</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
-        <v>44574</v>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A106" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B106" s="4">
         <v>1862.15</v>
@@ -2909,9 +3588,9 @@
         <v>1088.3800000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
-        <v>44575</v>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A107" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B107" s="4">
         <v>1863.09</v>
@@ -2926,9 +3605,9 @@
         <v>1089.5999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
-        <v>44576</v>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A108" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B108" s="4">
         <v>1864.94</v>
@@ -2943,9 +3622,9 @@
         <v>1090.8800000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
-        <v>44577</v>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A109" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B109" s="4">
         <v>1865.37</v>
@@ -2960,9 +3639,9 @@
         <v>1091.22</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>44578</v>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A110" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B110" s="4">
         <v>1865.8</v>
@@ -2977,9 +3656,9 @@
         <v>1092.6199999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
-        <v>44579</v>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A111" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B111" s="4">
         <v>1867.75</v>
@@ -2994,9 +3673,9 @@
         <v>1094.4100000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
-        <v>44580</v>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A112" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B112" s="4">
         <v>1869.27</v>
@@ -3011,9 +3690,9 @@
         <v>1096.93</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
-        <v>44581</v>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A113" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B113" s="4">
         <v>1872.99</v>
@@ -3028,9 +3707,9 @@
         <v>1099.6600000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
-        <v>44582</v>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A114" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B114" s="4">
         <v>1876.03</v>
@@ -3045,9 +3724,9 @@
         <v>1103.08</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
-        <v>44583</v>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A115" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B115" s="4">
         <v>1878.81</v>
@@ -3062,9 +3741,9 @@
         <v>1106.06</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
-        <v>44584</v>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A116" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B116" s="4">
         <v>1879.4</v>
@@ -3079,9 +3758,9 @@
         <v>1107.17</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
-        <v>44585</v>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A117" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B117" s="4">
         <v>1880.45</v>
@@ -3096,9 +3775,9 @@
         <v>1108.4100000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
-        <v>44586</v>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A118" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B118" s="4">
         <v>1883.09</v>
@@ -3113,9 +3792,9 @@
         <v>1111.17</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
-        <v>44587</v>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A119" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B119" s="4">
         <v>1885.18</v>
@@ -3130,9 +3809,9 @@
         <v>1113.3900000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
-        <v>44588</v>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A120" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B120" s="4">
         <v>1888.26</v>
@@ -3147,9 +3826,9 @@
         <v>1115.97</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
-        <v>44589</v>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A121" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B121" s="4">
         <v>1890.44</v>
@@ -3164,9 +3843,9 @@
         <v>1118.76</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
-        <v>44590</v>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A122" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B122" s="4">
         <v>1891.93</v>
@@ -3181,9 +3860,9 @@
         <v>1121.6400000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
-        <v>44591</v>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A123" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B123" s="4">
         <v>1892.44</v>
@@ -3198,9 +3877,9 @@
         <v>1123.3599999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
-        <v>44592</v>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A124" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B124" s="4">
         <v>1893.77</v>
@@ -3215,9 +3894,9 @@
         <v>1124.28</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
-        <v>44593</v>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A125" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B125" s="4">
         <v>1897.5</v>
@@ -3232,9 +3911,9 @@
         <v>1125.33</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
-        <v>44594</v>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A126" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="B126" s="4">
         <v>1898.24</v>
@@ -3249,9 +3928,9 @@
         <v>1126.21</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
-        <v>44595</v>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A127" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B127" s="4">
         <v>1899.31</v>
@@ -3266,9 +3945,9 @@
         <v>1128.3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
-        <v>44596</v>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A128" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B128" s="4">
         <v>1903.52</v>
@@ -3283,9 +3962,9 @@
         <v>1131.3900000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
-        <v>44597</v>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A129" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B129" s="4">
         <v>1907.98</v>
@@ -3300,9 +3979,9 @@
         <v>1138.19</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
-        <v>44598</v>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A130" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B130" s="4">
         <v>1909.83</v>
@@ -3317,9 +3996,9 @@
         <v>1140.45</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
-        <v>44599</v>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A131" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B131" s="4">
         <v>1911.83</v>
@@ -3334,9 +4013,9 @@
         <v>1143.72</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
-        <v>44600</v>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A132" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B132" s="4">
         <v>1915.41</v>
@@ -3351,9 +4030,9 @@
         <v>1149.57</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
-        <v>44601</v>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A133" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B133" s="4">
         <v>1923.64</v>
@@ -3368,9 +4047,9 @@
         <v>1154.8900000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
-        <v>44602</v>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A134" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B134" s="4">
         <v>1927.57</v>
@@ -3385,9 +4064,9 @@
         <v>1158.8599999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
-        <v>44603</v>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A135" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B135" s="4">
         <v>1929.34</v>
@@ -3402,9 +4081,9 @@
         <v>1163.06</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
-        <v>44604</v>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A136" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B136" s="4">
         <v>1931.41</v>
@@ -3419,9 +4098,9 @@
         <v>1166.78</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
-        <v>44605</v>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A137" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="B137" s="4">
         <v>1932.67</v>
@@ -3436,9 +4115,9 @@
         <v>1168.71</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
-        <v>44606</v>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A138" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B138" s="4">
         <v>1934.72</v>
@@ -3453,9 +4132,9 @@
         <v>1171.58</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
-        <v>44607</v>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A139" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="B139" s="4">
         <v>1938.18</v>
@@ -3470,9 +4149,9 @@
         <v>1175.83</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
-        <v>44608</v>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A140" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B140" s="4">
         <v>1942.47</v>
@@ -3487,9 +4166,9 @@
         <v>1180.25</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
-        <v>44609</v>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A141" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B141" s="4">
         <v>1944.94</v>
@@ -3504,9 +4183,9 @@
         <v>1183.44</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
-        <v>44610</v>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A142" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B142" s="4">
         <v>1948.02</v>
@@ -3521,9 +4200,9 @@
         <v>1186.77</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
-        <v>44611</v>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A143" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B143" s="4">
         <v>1950.32</v>
@@ -3538,9 +4217,9 @@
         <v>1189.8499999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
-        <v>44612</v>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A144" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B144" s="4">
         <v>1951.75</v>
@@ -3555,9 +4234,9 @@
         <v>1191.0999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
-        <v>44613</v>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A145" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B145" s="4">
         <v>1953.51</v>
@@ -3572,9 +4251,9 @@
         <v>1193.3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
-        <v>44614</v>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A146" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="B146" s="4">
         <v>1955.69</v>
@@ -3589,9 +4268,9 @@
         <v>1195.74</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
-        <v>44615</v>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A147" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="B147" s="4">
         <v>1958.38</v>
@@ -3606,9 +4285,9 @@
         <v>1199.43</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
-        <v>44616</v>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A148" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B148" s="4">
         <v>1960.22</v>
@@ -3623,9 +4302,9 @@
         <v>1202.08</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
-        <v>44617</v>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A149" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B149" s="4">
         <v>1963.42</v>
@@ -3640,9 +4319,9 @@
         <v>1205.5899999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
-        <v>44618</v>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A150" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B150" s="4">
         <v>1967.62</v>
@@ -3657,9 +4336,9 @@
         <v>1208.8900000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
-        <v>44619</v>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A151" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B151" s="4">
         <v>1968.72</v>
@@ -3674,9 +4353,9 @@
         <v>1210.07</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
-        <v>44620</v>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A152" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B152" s="4">
         <v>1970.54</v>
@@ -3691,9 +4370,9 @@
         <v>1211.75</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
-        <v>44621</v>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A153" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="B153" s="4">
         <v>1978.01</v>
@@ -3708,9 +4387,9 @@
         <v>1214.21</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
-        <v>44622</v>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A154" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B154" s="4">
         <v>1980.57</v>
@@ -3725,9 +4404,9 @@
         <v>1216.8599999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
-        <v>44623</v>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A155" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B155" s="4">
         <v>1987.1</v>
@@ -3742,9 +4421,9 @@
         <v>1220.8900000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
-        <v>44624</v>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A156" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B156" s="4">
         <v>2001.17</v>
@@ -3759,9 +4438,9 @@
         <v>1228.3499999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
-        <v>44625</v>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A157" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="B157" s="4">
         <v>2013.77</v>
@@ -3776,9 +4455,9 @@
         <v>1240.06</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
-        <v>44626</v>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A158" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="B158" s="4">
         <v>2021.93</v>
@@ -3793,9 +4472,9 @@
         <v>1246.3900000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
-        <v>44627</v>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A159" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B159" s="4">
         <v>2033.12</v>
@@ -3810,9 +4489,9 @@
         <v>1254.3399999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
-        <v>44628</v>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A160" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B160" s="4">
         <v>2070.15</v>
@@ -3827,9 +4506,9 @@
         <v>1274.04</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
-        <v>44629</v>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A161" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="B161" s="4">
         <v>2101.67</v>
@@ -3844,9 +4523,9 @@
         <v>1293.6400000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
-        <v>44630</v>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A162" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B162" s="4">
         <v>2121.6999999999998</v>
@@ -3861,9 +4540,9 @@
         <v>1307.9000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
-        <v>44631</v>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A163" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="B163" s="4">
         <v>2152.86</v>
@@ -3878,9 +4557,9 @@
         <v>1326.41</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
-        <v>44632</v>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A164" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B164" s="4">
         <v>2178.73</v>
@@ -3895,9 +4574,9 @@
         <v>1346.39</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
-        <v>44633</v>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A165" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B165" s="4">
         <v>2186.06</v>
@@ -3912,9 +4591,9 @@
         <v>1354.27</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
-        <v>44634</v>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A166" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="B166" s="4">
         <v>2199.38</v>
@@ -3929,9 +4608,9 @@
         <v>1365.14</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
-        <v>44635</v>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A167" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="B167" s="4">
         <v>2215.11</v>
@@ -3946,9 +4625,9 @@
         <v>1379.04</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
-        <v>44636</v>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A168" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B168" s="4">
         <v>2220.36</v>
@@ -3963,9 +4642,9 @@
         <v>1387.36</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
-        <v>44637</v>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A169" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B169" s="4">
         <v>2220.83</v>
@@ -3980,9 +4659,9 @@
         <v>1392.28</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
-        <v>44638</v>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A170" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="B170" s="4">
         <v>2219.27</v>
@@ -3997,9 +4676,9 @@
         <v>1397.91</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
-        <v>44639</v>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A171" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="B171" s="4">
         <v>2217.84</v>
@@ -4014,9 +4693,9 @@
         <v>1402.4</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
-        <v>44640</v>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A172" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B172" s="4">
         <v>2217.71</v>
@@ -4031,9 +4710,9 @@
         <v>1403.61</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
-        <v>44641</v>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A173" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="B173" s="4">
         <v>2218.15</v>
@@ -4048,9 +4727,9 @@
         <v>1405.24</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
-        <v>44642</v>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A174" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B174" s="4">
         <v>2217.0700000000002</v>
@@ -4065,9 +4744,9 @@
         <v>1406.68</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
-        <v>44643</v>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A175" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="B175" s="4">
         <v>2217.0700000000002</v>
@@ -4082,9 +4761,9 @@
         <v>1408.77</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
-        <v>44644</v>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A176" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="B176" s="4">
         <v>2216.29</v>
@@ -4099,9 +4778,9 @@
         <v>1410.77</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
-        <v>44645</v>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A177" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B177" s="4">
         <v>2214.41</v>
@@ -4116,9 +4795,9 @@
         <v>1412.95</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
-        <v>44646</v>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A178" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B178" s="4">
         <v>2212.9</v>
@@ -4133,9 +4812,9 @@
         <v>1415.09</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
-        <v>44647</v>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A179" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B179" s="4">
         <v>2213.04</v>
@@ -4150,9 +4829,9 @@
         <v>1415.57</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
-        <v>44648</v>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A180" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="B180" s="4">
         <v>2212.79</v>
@@ -4167,9 +4846,9 @@
         <v>1416.78</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
-        <v>44649</v>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A181" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B181" s="4">
         <v>2214.23</v>
@@ -4184,9 +4863,9 @@
         <v>1418.78</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
-        <v>44650</v>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A182" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B182" s="4">
         <v>2213.16</v>
@@ -4201,9 +4880,9 @@
         <v>1420.21</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
-        <v>44651</v>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A183" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B183" s="4">
         <v>2212.71</v>
@@ -4218,9 +4897,9 @@
         <v>1421.21</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
-        <v>44652</v>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A184" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B184" s="4">
         <v>2211.4499999999998</v>
@@ -4235,9 +4914,9 @@
         <v>1422.72</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
-        <v>44653</v>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A185" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B185" s="4">
         <v>2204.6799999999998</v>
@@ -4252,9 +4931,9 @@
         <v>1423.37</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
-        <v>44654</v>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A186" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="B186" s="4">
         <v>2202.84</v>
@@ -4269,9 +4948,9 @@
         <v>1423.33</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
-        <v>44655</v>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A187" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B187" s="4">
         <v>2202.56</v>
@@ -4286,9 +4965,9 @@
         <v>1423.94</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
-        <v>44656</v>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A188" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="B188" s="4">
         <v>2198.4</v>
@@ -4303,8 +4982,144 @@
         <v>1424.51</v>
       </c>
     </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A189" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="4">
+        <v>2198.4899999999998</v>
+      </c>
+      <c r="C189" s="4">
+        <v>1988.81</v>
+      </c>
+      <c r="D189" s="4">
+        <v>1910.43</v>
+      </c>
+      <c r="E189" s="4">
+        <v>1425.07</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A190" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="4">
+        <v>2196.66</v>
+      </c>
+      <c r="C190" s="4">
+        <v>1987.04</v>
+      </c>
+      <c r="D190" s="4">
+        <v>1909.18</v>
+      </c>
+      <c r="E190" s="4">
+        <v>1425.64</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="4">
+        <v>2195.6</v>
+      </c>
+      <c r="C191" s="4">
+        <v>1984.87</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1907.86</v>
+      </c>
+      <c r="E191" s="4">
+        <v>1426.28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="4">
+        <v>2194.44</v>
+      </c>
+      <c r="C192" s="4">
+        <v>1982.9</v>
+      </c>
+      <c r="D192" s="4">
+        <v>1906.17</v>
+      </c>
+      <c r="E192" s="4">
+        <v>1426.61</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A193" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="4">
+        <v>2193.56</v>
+      </c>
+      <c r="C193" s="4">
+        <v>1982.06</v>
+      </c>
+      <c r="D193" s="4">
+        <v>1905.5</v>
+      </c>
+      <c r="E193" s="4">
+        <v>1426.73</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="4">
+        <v>2193.61</v>
+      </c>
+      <c r="C194" s="4">
+        <v>1980.41</v>
+      </c>
+      <c r="D194" s="4">
+        <v>1904.54</v>
+      </c>
+      <c r="E194" s="4">
+        <v>1426.81</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A195" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" s="4">
+        <v>2193.2800000000002</v>
+      </c>
+      <c r="C195" s="4">
+        <v>1976.94</v>
+      </c>
+      <c r="D195" s="4">
+        <v>1902.53</v>
+      </c>
+      <c r="E195" s="4">
+        <v>1426.82</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="4">
+        <v>2192.16</v>
+      </c>
+      <c r="C196" s="4">
+        <v>1974.21</v>
+      </c>
+      <c r="D196" s="4">
+        <v>1900.84</v>
+      </c>
+      <c r="E196" s="4">
+        <v>1426.74</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
